--- a/Rental-Fishpond/Rental Fishpond.xlsx
+++ b/Rental-Fishpond/Rental Fishpond.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petitmi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petitmi/pythonCode/playettes/Rental-Fishpond/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A502E8-3130-6C43-BE5D-D21E529C402F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AE22B4-620D-4240-8FE7-C3B989518BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,31 +112,16 @@
     <t>test</t>
   </si>
   <si>
-    <t>6888 Cooney Rmd</t>
-  </si>
-  <si>
     <t>furnished</t>
   </si>
   <si>
-    <t>5518 Fleming street</t>
-  </si>
-  <si>
     <t>house</t>
   </si>
   <si>
-    <t>7979 Firbridge way</t>
-  </si>
-  <si>
     <t>den</t>
   </si>
   <si>
-    <t>5117 Garden City rd Richmond  Unit 6103</t>
-  </si>
-  <si>
     <t>old appliances, connceted to garden</t>
-  </si>
-  <si>
-    <t>9388 Tomicki Ave</t>
   </si>
   <si>
     <t>PingPong</t>
@@ -154,6 +139,21 @@
   </si>
   <si>
     <t xml:space="preserve">Commute </t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Address3</t>
+  </si>
+  <si>
+    <t>Address4</t>
+  </si>
+  <si>
+    <t>Address5</t>
   </si>
 </sst>
 </file>
@@ -199,14 +199,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -217,6 +209,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -737,10 +737,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -750,108 +751,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -862,55 +828,91 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -922,47 +924,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1183,7 +1181,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N8" sqref="N8"/>
+      <selection pane="topRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1210,30 +1208,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="12" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="76"/>
+      <c r="E1" s="82"/>
       <c r="F1" s="9"/>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="66"/>
+      <c r="J1" s="72"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
@@ -1249,31 +1247,31 @@
       <c r="W1" s="11"/>
     </row>
     <row r="2" spans="1:24" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78">
+      <c r="A2" s="70"/>
+      <c r="B2" s="60">
         <v>2600</v>
       </c>
-      <c r="C2" s="78">
+      <c r="C2" s="60">
         <v>30</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="78">
+      <c r="E2" s="60">
         <f>(C3-C2)/(B3-B2)</f>
         <v>-6.25E-2</v>
       </c>
       <c r="F2" s="9"/>
-      <c r="G2" s="67">
+      <c r="G2" s="52">
         <v>15</v>
       </c>
-      <c r="H2" s="68">
+      <c r="H2" s="53">
         <v>20</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="70">
+      <c r="J2" s="55">
         <f>(H3-H2)/(G3-G2)</f>
         <v>-0.66666666666666663</v>
       </c>
@@ -1292,31 +1290,31 @@
       <c r="W2" s="11"/>
     </row>
     <row r="3" spans="1:24" s="12" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="77"/>
-      <c r="B3" s="79">
+      <c r="A3" s="70"/>
+      <c r="B3" s="61">
         <v>3000</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="61">
         <v>5</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="79">
+      <c r="E3" s="61">
         <f>C3-B3*E2</f>
         <v>192.5</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="71">
+      <c r="G3" s="56">
         <v>30</v>
       </c>
-      <c r="H3" s="72">
+      <c r="H3" s="57">
         <v>10</v>
       </c>
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="74">
+      <c r="J3" s="59">
         <f>H3-J2*G3</f>
         <v>30</v>
       </c>
@@ -1335,44 +1333,44 @@
       <c r="W3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="40" t="s">
+      <c r="F4" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="40" t="s">
+      <c r="J4" s="91"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="42"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="92"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
@@ -1381,105 +1379,105 @@
       <c r="X4" s="13"/>
     </row>
     <row r="5" spans="1:24" s="12" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="27" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="44" t="s">
+      <c r="Q5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="45" t="s">
+      <c r="R5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
     </row>
     <row r="6" spans="1:24" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="46"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="23">
+      <c r="A6" s="75"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="21">
         <v>1</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="26">
         <v>1</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="22">
         <v>10</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="17">
         <v>5</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="31">
         <v>-20</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="22">
         <v>10</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="17">
         <v>5</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="17">
         <v>4</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="17">
         <v>3</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="17">
         <v>3</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="17">
         <v>3</v>
       </c>
-      <c r="R6" s="47">
+      <c r="R6" s="36">
         <v>3</v>
       </c>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="37" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2"/>
@@ -1487,27 +1485,27 @@
       <c r="D7" s="1">
         <v>2660</v>
       </c>
-      <c r="E7" s="83">
+      <c r="E7" s="62">
         <v>10</v>
       </c>
-      <c r="F7" s="90">
+      <c r="F7" s="66">
         <f t="shared" ref="F7:F12" si="0">SUMPRODUCT(G7:AB7,G$6:AB$6)</f>
         <v>34.583333333333336</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="19">
         <f>$E$2*D7+$E$3</f>
         <v>26.25</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="27">
         <f t="shared" ref="H7:H12" si="1">$J$2*E7+$J$3</f>
         <v>23.333333333333336</v>
       </c>
-      <c r="I7" s="25"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="25"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1">
         <v>-5</v>
@@ -1515,7 +1513,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="49"/>
+      <c r="R7" s="38"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -1524,8 +1522,8 @@
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="50" t="s">
-        <v>24</v>
+      <c r="A8" s="93" t="s">
+        <v>33</v>
       </c>
       <c r="B8" s="4">
         <v>45352</v>
@@ -1534,27 +1532,27 @@
       <c r="D8" s="5">
         <v>3000</v>
       </c>
-      <c r="E8" s="84">
+      <c r="E8" s="63">
         <v>27</v>
       </c>
-      <c r="F8" s="91">
+      <c r="F8" s="67">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G8" s="22">
-        <f t="shared" ref="G7:G12" si="2">$E$2*D8+$E$3</f>
+      <c r="G8" s="20">
+        <f t="shared" ref="G8:G12" si="2">$E$2*D8+$E$3</f>
         <v>5</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="28">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="24">
         <v>1</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="26">
+      <c r="K8" s="33"/>
+      <c r="L8" s="24">
         <v>1</v>
       </c>
       <c r="M8" s="6"/>
@@ -1564,14 +1562,14 @@
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
-      <c r="R8" s="51"/>
+      <c r="R8" s="39"/>
       <c r="S8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="50" t="s">
-        <v>26</v>
+      <c r="A9" s="93" t="s">
+        <v>34</v>
       </c>
       <c r="B9" s="4">
         <v>45413</v>
@@ -1580,27 +1578,27 @@
       <c r="D9" s="5">
         <v>2600</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="63">
         <v>33</v>
       </c>
-      <c r="F9" s="91">
+      <c r="F9" s="67">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="20">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="28">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I9" s="26"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="26"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6">
         <v>-4</v>
@@ -1610,11 +1608,11 @@
         <v>1</v>
       </c>
       <c r="Q9" s="6"/>
-      <c r="R9" s="51">
+      <c r="R9" s="39">
         <v>1</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -1623,8 +1621,8 @@
       <c r="X9" s="7"/>
     </row>
     <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="50" t="s">
-        <v>28</v>
+      <c r="A10" s="93" t="s">
+        <v>35</v>
       </c>
       <c r="B10" s="4">
         <v>45413</v>
@@ -1635,27 +1633,27 @@
       <c r="D10" s="5">
         <v>3050</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="63">
         <v>22</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="67">
         <f t="shared" si="0"/>
         <v>41.708333333333336</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="20">
         <f t="shared" si="2"/>
         <v>1.875</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="28">
         <f t="shared" si="1"/>
         <v>15.333333333333334</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="7">
         <v>1</v>
       </c>
       <c r="J10" s="6"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="26">
+      <c r="K10" s="33"/>
+      <c r="L10" s="24">
         <v>1</v>
       </c>
       <c r="M10" s="6"/>
@@ -1667,14 +1665,14 @@
       <c r="Q10" s="6">
         <v>1</v>
       </c>
-      <c r="R10" s="51"/>
+      <c r="R10" s="39"/>
       <c r="S10" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="50" t="s">
-        <v>30</v>
+      <c r="A11" s="93" t="s">
+        <v>36</v>
       </c>
       <c r="B11" s="4">
         <v>45413</v>
@@ -1685,27 +1683,27 @@
       <c r="D11" s="5">
         <v>2900</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="63">
         <v>27</v>
       </c>
-      <c r="F11" s="91">
+      <c r="F11" s="67">
         <f t="shared" si="0"/>
         <v>46.25</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="20">
         <f t="shared" si="2"/>
         <v>11.25</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="28">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="24">
         <v>1</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="26">
+      <c r="K11" s="33"/>
+      <c r="L11" s="24">
         <v>1</v>
       </c>
       <c r="M11" s="6"/>
@@ -1717,11 +1715,11 @@
         <v>0.5</v>
       </c>
       <c r="Q11" s="6"/>
-      <c r="R11" s="51">
+      <c r="R11" s="39">
         <v>1</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -1730,8 +1728,8 @@
       <c r="X11" s="7"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="50" t="s">
-        <v>32</v>
+      <c r="A12" s="93" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="4">
         <v>45352</v>
@@ -1740,27 +1738,27 @@
       <c r="D12" s="5">
         <v>3000</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="63">
         <v>30</v>
       </c>
-      <c r="F12" s="91">
+      <c r="F12" s="67">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="20">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="28">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="24">
         <v>1</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="26">
+      <c r="K12" s="33"/>
+      <c r="L12" s="24">
         <v>1.5</v>
       </c>
       <c r="M12" s="6"/>
@@ -1770,9 +1768,9 @@
       <c r="Q12" s="6">
         <v>1</v>
       </c>
-      <c r="R12" s="51"/>
+      <c r="R12" s="39"/>
       <c r="S12" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -1781,24 +1779,24 @@
       <c r="X12" s="7"/>
     </row>
     <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="53"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="26"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="26"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="24"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="51"/>
+      <c r="R13" s="39"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -1807,24 +1805,24 @@
       <c r="X13" s="7"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="26"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="26"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="51"/>
+      <c r="R14" s="39"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
@@ -1833,24 +1831,24 @@
       <c r="X14" s="7"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="53"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="26"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="24"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="26"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
-      <c r="R15" s="51"/>
+      <c r="R15" s="39"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -1859,24 +1857,24 @@
       <c r="X15" s="7"/>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="26"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="26"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="51"/>
+      <c r="R16" s="39"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
@@ -1885,24 +1883,24 @@
       <c r="X16" s="7"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="53"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="26"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="26"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="51"/>
+      <c r="R17" s="39"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
@@ -1911,24 +1909,24 @@
       <c r="X17" s="7"/>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="26"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="26"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
-      <c r="R18" s="51"/>
+      <c r="R18" s="39"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -1937,24 +1935,24 @@
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="62"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="49"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -1964,6 +1962,7 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="L4:R4"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A4:A6"/>
@@ -1976,7 +1975,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:R4"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="colorScale" priority="1">

--- a/Rental-Fishpond/Rental Fishpond.xlsx
+++ b/Rental-Fishpond/Rental Fishpond.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petitmi/pythonCode/playettes/Rental-Fishpond/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AE22B4-620D-4240-8FE7-C3B989518BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566C78E3-5078-3846-82F5-5F6AF17477CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1181,7 +1181,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L9" sqref="L9"/>
+      <selection pane="topRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
